--- a/2022/scratch.xlsx
+++ b/2022/scratch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freex\Documents\GitHub\30DayMapChallenge\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974251FE-0F6C-4336-BE38-C4A4F85BEEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F90194-FFEB-4060-9AB6-2A3A04A86F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>day</t>
   </si>
@@ -133,6 +133,21 @@
   </si>
   <si>
     <t>Risk board game</t>
+  </si>
+  <si>
+    <t>stores in Merced</t>
+  </si>
+  <si>
+    <t>heat map proximity to cities named green</t>
+  </si>
+  <si>
+    <t>countryinfo package into network diagram</t>
+  </si>
+  <si>
+    <t>baseball team relocation</t>
+  </si>
+  <si>
+    <t>Carmen San Diego redux</t>
   </si>
 </sst>
 </file>
@@ -470,7 +485,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -521,6 +536,9 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -529,6 +547,9 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -548,6 +569,9 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -621,7 +645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -629,7 +653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -637,7 +661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -645,7 +669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -653,7 +677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -661,7 +685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -669,7 +693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -677,15 +701,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -693,7 +720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -701,7 +728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -709,15 +736,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -725,7 +755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -733,7 +763,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>

--- a/2022/scratch.xlsx
+++ b/2022/scratch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freex\Documents\GitHub\30DayMapChallenge\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F90194-FFEB-4060-9AB6-2A3A04A86F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0DC805-74F5-4A65-B4C6-E75CD2D2F8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36000" yWindow="3360" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <t>CA-NV-AZ train system</t>
   </si>
   <si>
-    <t>Risk board game</t>
-  </si>
-  <si>
     <t>stores in Merced</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Carmen San Diego redux</t>
+  </si>
+  <si>
+    <t>Ukrainian mathematicians</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -537,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -559,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -744,7 +744,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">

--- a/2022/scratch.xlsx
+++ b/2022/scratch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freex\Documents\GitHub\30DayMapChallenge\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0DC805-74F5-4A65-B4C6-E75CD2D2F8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8318623F-0922-41C2-80E9-DF2184F5B666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="3360" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>day</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>Ukrainian mathematicians</t>
+  </si>
+  <si>
+    <t>3D glasses (blue and red shift)</t>
+  </si>
+  <si>
+    <t>Starfox</t>
+  </si>
+  <si>
+    <t>Treaty of Torsadillas</t>
+  </si>
+  <si>
+    <t>Myst</t>
   </si>
 </sst>
 </file>
@@ -485,7 +497,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -596,6 +608,9 @@
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -727,6 +742,9 @@
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C26" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -735,6 +753,9 @@
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -753,6 +774,9 @@
       </c>
       <c r="B29" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">

--- a/2022/scratch.xlsx
+++ b/2022/scratch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freex\Documents\GitHub\30DayMapChallenge\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8318623F-0922-41C2-80E9-DF2184F5B666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34F57EA-B2E2-4F47-830E-774AC6C48098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>day</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>Myst</t>
+  </si>
+  <si>
+    <t>4 cities in Merced county, map scales</t>
+  </si>
+  <si>
+    <t>rainfall differences</t>
+  </si>
+  <si>
+    <t>obviously, blue is land</t>
   </si>
 </sst>
 </file>
@@ -497,7 +506,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -592,6 +601,9 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -619,6 +631,9 @@
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -634,6 +649,9 @@
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">

--- a/2022/scratch.xlsx
+++ b/2022/scratch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freex\Documents\GitHub\30DayMapChallenge\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34F57EA-B2E2-4F47-830E-774AC6C48098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38510C0B-81B8-4BB5-8F24-EF6BD2B85799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>day</t>
   </si>
@@ -169,6 +169,21 @@
   </si>
   <si>
     <t>obviously, blue is land</t>
+  </si>
+  <si>
+    <t>2020 Cincinnati Reds</t>
+  </si>
+  <si>
+    <t>public toilets in Merced</t>
+  </si>
+  <si>
+    <t>parental disability as grounds for termination of parental rights</t>
+  </si>
+  <si>
+    <t>https://mobile.twitter.com/RobynMPowell/status/1584568422012424195</t>
+  </si>
+  <si>
+    <t>In-n-Out!</t>
   </si>
 </sst>
 </file>
@@ -503,21 +518,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -539,7 +554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -550,7 +565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -561,7 +576,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -572,7 +587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -583,7 +598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -594,7 +609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -605,15 +620,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -624,7 +642,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -635,15 +653,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -654,7 +675,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -662,20 +683,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">

--- a/2022/scratch.xlsx
+++ b/2022/scratch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freex\Documents\GitHub\30DayMapChallenge\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38510C0B-81B8-4BB5-8F24-EF6BD2B85799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3645C1B-25C4-40D8-B6F1-35FB6A54E34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>day</t>
   </si>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t>In-n-Out!</t>
+  </si>
+  <si>
+    <t>California Unroll</t>
+  </si>
+  <si>
+    <t>Route 66</t>
+  </si>
+  <si>
+    <t>rayshader code</t>
+  </si>
+  <si>
+    <t>Toulouse blue pigment</t>
   </si>
 </sst>
 </file>
@@ -521,7 +533,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -682,6 +694,9 @@
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -715,6 +730,9 @@
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -723,6 +741,9 @@
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -730,6 +751,9 @@
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">

--- a/2022/scratch.xlsx
+++ b/2022/scratch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freex\Documents\GitHub\30DayMapChallenge\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3645C1B-25C4-40D8-B6F1-35FB6A54E34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D74C563-54DC-4F7B-8D57-64EB9840610B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31695" yWindow="2880" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>day</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Toulouse blue pigment</t>
+  </si>
+  <si>
+    <t>Warhol</t>
+  </si>
+  <si>
+    <t>Barcelona fountain</t>
   </si>
 </sst>
 </file>
@@ -532,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -763,6 +769,9 @@
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -770,6 +779,9 @@
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">

--- a/2022/scratch.xlsx
+++ b/2022/scratch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freex\Documents\GitHub\30DayMapChallenge\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D74C563-54DC-4F7B-8D57-64EB9840610B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACDE45B-1356-4819-89BB-149BEBED9890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31695" yWindow="2880" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32040" yWindow="3225" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>day</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>Barcelona fountain</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>Merced</t>
+  </si>
+  <si>
+    <t>cities whose ANSICODE is missing</t>
   </si>
 </sst>
 </file>
@@ -539,7 +548,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -791,6 +800,9 @@
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C22" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -799,6 +811,9 @@
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -817,6 +832,9 @@
       </c>
       <c r="B25" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
